--- a/validation/Fiber emissions model.xlsx
+++ b/validation/Fiber emissions model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/glassfiber/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E720FB-F6D0-1646-82F7-6CE3C81BDE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA915370-047C-E94E-8C6F-3777280F75A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57320" yWindow="500" windowWidth="37240" windowHeight="26300" activeTab="1" xr2:uid="{E414573E-1899-054D-A8BC-A7D22685DF20}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{E414573E-1899-054D-A8BC-A7D22685DF20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -501,6 +501,9 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,9 +532,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -553,9 +553,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -593,7 +593,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -699,7 +699,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -841,7 +841,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C44FAE-A1B9-3C4F-8ABC-5C767A54D782}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -870,16 +870,16 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -914,14 +914,14 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>750</v>
+        <v>177</v>
       </c>
       <c r="E4" s="2">
         <v>1403</v>
       </c>
       <c r="F4" s="6">
         <f>E4*D4*B4</f>
-        <v>1052250</v>
+        <v>248331</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
@@ -1138,14 +1138,14 @@
         <v>10</v>
       </c>
       <c r="D13" s="2">
-        <v>24630</v>
+        <v>8000</v>
       </c>
       <c r="E13" s="2">
         <v>120</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="1"/>
-        <v>29556000</v>
+        <v>9600000</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>10</v>
@@ -1183,13 +1183,13 @@
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="7">
         <f>SUM(F4:F14)/1000000</f>
-        <v>70.356375999999997</v>
+        <v>49.596457000000001</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1198,16 +1198,16 @@
       <c r="F16" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
@@ -1281,10 +1281,10 @@
       <c r="A22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="10">
         <f>SUM(F20:F21)</f>
         <v>3.234</v>
@@ -1293,16 +1293,16 @@
       <c r="H22" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
@@ -1483,10 +1483,10 @@
       <c r="A36" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="6">
         <f>E27*D35</f>
         <v>0.94408115999999986</v>
@@ -1495,17 +1495,17 @@
       <c r="H36" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
@@ -1543,14 +1543,14 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2">
-        <v>750</v>
+        <v>177</v>
       </c>
       <c r="E41" s="2">
         <v>21.280193798449609</v>
       </c>
       <c r="F41" s="6">
         <f>E41*D41*B41</f>
-        <v>159601.45348837206</v>
+        <v>37665.943023255808</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
@@ -1791,14 +1791,14 @@
         <v>10</v>
       </c>
       <c r="D50" s="2">
-        <v>24630</v>
+        <v>8000</v>
       </c>
       <c r="E50" s="2">
         <v>0.98470835000000001</v>
       </c>
       <c r="F50" s="6">
         <f t="shared" si="3"/>
-        <v>242533.66660500001</v>
+        <v>78776.668000000005</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>10</v>
@@ -1842,13 +1842,13 @@
       <c r="A52" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="10">
         <f>SUM(F41:F51)/1000</f>
-        <v>407.2402486052975</v>
+        <v>121.54773953518115</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -1875,7 +1875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E95D059-E38C-9A42-B5DA-9CB392BB3E68}">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22:G23"/>
     </sheetView>
   </sheetViews>
@@ -1884,7 +1884,7 @@
     <col min="2" max="2" width="170.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1939,195 +1939,195 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="C12" s="21"/>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="C13" s="21"/>
-      <c r="F13" s="23" t="s">
+      <c r="C13" s="23"/>
+      <c r="F13" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C14" s="21"/>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="23" t="s">
         <v>80</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="3:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="23" t="s">
         <v>87</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="23" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="3:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="21"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="3:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="23" t="s">
         <v>91</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="3:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="24"/>
-      <c r="G23" s="21"/>
+      <c r="G23" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4A14436B-90E1-9043-BE77-18F003D14A3F}"/>

--- a/validation/Fiber emissions model.xlsx
+++ b/validation/Fiber emissions model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/glassfiber/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA915370-047C-E94E-8C6F-3777280F75A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4DA3BF-11AE-054A-A306-434C5D27E4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{E414573E-1899-054D-A8BC-A7D22685DF20}"/>
+    <workbookView xWindow="42500" yWindow="2500" windowWidth="42960" windowHeight="25880" xr2:uid="{E414573E-1899-054D-A8BC-A7D22685DF20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C44FAE-A1B9-3C4F-8ABC-5C767A54D782}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -914,14 +914,14 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2">
         <v>1403</v>
       </c>
       <c r="F4" s="6">
         <f>E4*D4*B4</f>
-        <v>248331</v>
+        <v>134688</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
@@ -961,14 +961,14 @@
         <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>19400</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
-        <v>6984000</v>
+        <v>2910000</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -987,14 +987,14 @@
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2">
         <v>4910</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>1129300</v>
+        <v>785600</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -1088,14 +1088,14 @@
         <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2">
         <v>2560</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
-        <v>588800</v>
+        <v>409600</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>10</v>
@@ -1113,14 +1113,14 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2">
         <v>19400</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" ref="F12:F13" si="1">E12*D12*C12</f>
-        <v>13386000</v>
+        <v>3880000</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>10</v>
@@ -1163,14 +1163,14 @@
         <v>10</v>
       </c>
       <c r="D14" s="2">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2">
         <v>19400</v>
       </c>
       <c r="F14" s="6">
         <f>E14*D14*C14</f>
-        <v>12998000</v>
+        <v>3880000</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>10</v>
@@ -1189,7 +1189,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="7">
         <f>SUM(F4:F14)/1000000</f>
-        <v>49.596457000000001</v>
+        <v>26.261914000000001</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1543,14 +1543,14 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2">
         <v>21.280193798449609</v>
       </c>
       <c r="F41" s="6">
         <f>E41*D41*B41</f>
-        <v>37665.943023255808</v>
+        <v>20428.986046511625</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
@@ -1595,14 +1595,14 @@
         <v>10</v>
       </c>
       <c r="D43" s="2">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E43" s="2">
         <v>0.98470835000000001</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" si="2"/>
-        <v>354.49500599999999</v>
+        <v>147.70625250000001</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>10</v>
@@ -1623,14 +1623,14 @@
         <v>10</v>
       </c>
       <c r="D44" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E44" s="2">
         <v>0.98470835000000001</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="2"/>
-        <v>226.48292050000003</v>
+        <v>157.553336</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>10</v>
@@ -1735,14 +1735,14 @@
         <v>10</v>
       </c>
       <c r="D48" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E48" s="2">
         <v>0.98470835000000001</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" si="2"/>
-        <v>226.48292050000003</v>
+        <v>157.553336</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>10</v>
@@ -1763,14 +1763,14 @@
         <v>10</v>
       </c>
       <c r="D49" s="2">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E49" s="2">
         <v>0.98470835000000001</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" ref="F49:F50" si="3">E49*D49*C49</f>
-        <v>679.44876150000005</v>
+        <v>196.94166999999999</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>10</v>
@@ -1819,14 +1819,14 @@
         <v>10</v>
       </c>
       <c r="D51" s="2">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2">
         <v>0.98470835000000001</v>
       </c>
       <c r="F51" s="6">
         <f>E51*D51*C51</f>
-        <v>659.75459450000005</v>
+        <v>196.94166999999999</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>10</v>
@@ -1848,7 +1848,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="10">
         <f>SUM(F41:F51)/1000</f>
-        <v>121.54773953518115</v>
+        <v>103.02081461993698</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
